--- a/Android/ExcelData/ChargeValueTable.xlsx
+++ b/Android/ExcelData/ChargeValueTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED455E6-1E85-4826-9329-6474EE12E297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CAF663-7826-477F-9806-0DFC79648A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40350" yWindow="1950" windowWidth="35880" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -698,20 +698,20 @@
     <t>지정 수치만큼 차징, Final max값 이상은 차징되지 않음</t>
   </si>
   <si>
-    <t>ChargeValue_Data</t>
+    <t>근원 전달 횟수(플레이어 보유)</t>
+  </si>
+  <si>
+    <t>근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
+  </si>
+  <si>
+    <t>Final max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
+  </si>
+  <si>
+    <t>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+  </si>
+  <si>
+    <t>Charge_Value_Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>근원 전달 횟수(플레이어 보유)</t>
-  </si>
-  <si>
-    <t>근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
-  </si>
-  <si>
-    <t>Final max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
-  </si>
-  <si>
-    <t>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
   </si>
 </sst>
 </file>
@@ -979,6 +979,8 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
+      <sheetName val="@reward_type"/>
+      <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -992,32 +994,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TOUCH_BODY_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TOUCH_GESTURE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>INEQUALITY_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
@@ -1051,233 +1035,145 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>GOLD</v>
+            <v>EXP_POTION_P</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 금화(게임내 사용되는 재화)</v>
+            <v>1 플레이어 경험치 물약</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>DIA</v>
+            <v>EXP_POTION_C</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 보석(게임내 사용되는 유료 재화)</v>
+            <v>2 캐릭터 경험치 물약</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>STAMINA</v>
+            <v>STA_POTION</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 스태미나</v>
+            <v>3 스테미나 회복 물약</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>FAVORITE</v>
+            <v>FAVORITE_ITEM</v>
           </cell>
           <cell r="B8">
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>4 호감도</v>
+            <v>4 호감도 아이템</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>EXP_PLAYER</v>
+            <v>EXP_SKILL</v>
           </cell>
           <cell r="B9">
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>5 플레이어 경험치</v>
+            <v>5 스킬 경험치 아이템</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>EXP_CHARACTER</v>
+            <v>STAGE_SKIP</v>
           </cell>
           <cell r="B10">
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>6 캐릭터 경험치</v>
+            <v>6 스테이지 스킵 티켓</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>CHARACTER</v>
+            <v>TICKET_DUNGEON</v>
           </cell>
           <cell r="B11">
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7 캐릭터</v>
+            <v>7 던전 입장 티켓</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>EQUIPMENT</v>
+            <v>EQ_GROWUP</v>
           </cell>
           <cell r="B12">
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>6 장비</v>
+            <v>8 정련석(장비 성장)</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>SEND_ESSENCE</v>
+            <v>TICKET_REWARD_SELECT</v>
           </cell>
           <cell r="B13">
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>근원 전달 횟수(플레이어 보유)</v>
+            <v>9 보상 선택 티켓(1개를 선택 획득)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>GET_ESSENCE</v>
+            <v>TICKET_REWARD_RANDOM</v>
           </cell>
           <cell r="B14">
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+            <v>10 보상 랜덤 티켓(1개를 확률 획득)</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>EXP_POTION</v>
+            <v>TICKET_REWARD_ALL</v>
           </cell>
           <cell r="B15">
-            <v>101</v>
+            <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>101 경험치 물약</v>
+            <v>11 보상 패키지 티켓(모든 보상 획득)</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>STA_POTION</v>
+            <v>EQUIPMENT</v>
           </cell>
           <cell r="B16">
-            <v>102</v>
+            <v>100</v>
           </cell>
           <cell r="C16" t="str">
-            <v>102 스테미나 회복 물약</v>
+            <v>100 장비</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>FAVORITE_ITEM</v>
+            <v>PIECE_EQUIPMENT</v>
           </cell>
           <cell r="B17">
-            <v>103</v>
+            <v>1000</v>
           </cell>
           <cell r="C17" t="str">
-            <v>103 호감도 아이템</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>STAGE_SKIP</v>
-          </cell>
-          <cell r="B18">
-            <v>104</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>104 스테이지 스킵 티켓</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>TICKET_DUNGEON</v>
-          </cell>
-          <cell r="B19">
-            <v>105</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>105 던전 입장 티켓</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>EQ_GROWUP</v>
-          </cell>
-          <cell r="B20">
-            <v>106</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>106 정련석(장비 성장)</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>TICKET_REWARD_SELECT</v>
-          </cell>
-          <cell r="B21">
-            <v>107</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>107 보상 선택 티켓(1개를 선택 획득)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>TICKET_REWARD_RANDOM</v>
-          </cell>
-          <cell r="B22">
-            <v>108</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>TICKET_REWARD_ALL</v>
-          </cell>
-          <cell r="B23">
-            <v>109</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>109 보상 패키지 티켓(모든 보상 획득)</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>PIECE_EQUIPMENT</v>
-          </cell>
-          <cell r="B24">
-            <v>110</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>110 장비 조각</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>PIECE_CHARACTER</v>
-          </cell>
-          <cell r="B25">
-            <v>111</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>111 캐릭터 조각</v>
+            <v>1000 장비 조각</v>
           </cell>
         </row>
       </sheetData>
@@ -1431,6 +1327,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1772,7 +1670,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="str">
         <f>'[1]@goods_type'!$A5</f>
-        <v>GOLD</v>
+        <v>EXP_POTION_P</v>
       </c>
       <c r="B4" s="5">
         <f>'[1]@goods_type'!$B5</f>
@@ -1780,7 +1678,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f>'[1]@goods_type'!$C5</f>
-        <v>1 금화(게임내 사용되는 재화)</v>
+        <v>1 플레이어 경험치 물약</v>
       </c>
       <c r="E4" s="12" t="str">
         <f>'[1]@repeat_type'!A4</f>
@@ -1798,7 +1696,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="str">
         <f>'[1]@goods_type'!$A6</f>
-        <v>DIA</v>
+        <v>EXP_POTION_C</v>
       </c>
       <c r="B5" s="5">
         <f>'[1]@goods_type'!$B6</f>
@@ -1806,7 +1704,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f>'[1]@goods_type'!$C6</f>
-        <v>2 보석(게임내 사용되는 유료 재화)</v>
+        <v>2 캐릭터 경험치 물약</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>'[1]@repeat_type'!A5</f>
@@ -1824,7 +1722,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="str">
         <f>'[1]@goods_type'!$A7</f>
-        <v>STAMINA</v>
+        <v>STA_POTION</v>
       </c>
       <c r="B6" s="5">
         <f>'[1]@goods_type'!$B7</f>
@@ -1832,7 +1730,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f>'[1]@goods_type'!$C7</f>
-        <v>3 스태미나</v>
+        <v>3 스테미나 회복 물약</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>'[1]@repeat_type'!A6</f>
@@ -1850,7 +1748,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="str">
         <f>'[1]@goods_type'!$A8</f>
-        <v>FAVORITE</v>
+        <v>FAVORITE_ITEM</v>
       </c>
       <c r="B7" s="5">
         <f>'[1]@goods_type'!$B8</f>
@@ -1858,7 +1756,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f>'[1]@goods_type'!$C8</f>
-        <v>4 호감도</v>
+        <v>4 호감도 아이템</v>
       </c>
       <c r="E7" s="12" t="str">
         <f>'[1]@repeat_type'!A7</f>
@@ -1876,7 +1774,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="str">
         <f>'[1]@goods_type'!$A9</f>
-        <v>EXP_PLAYER</v>
+        <v>EXP_SKILL</v>
       </c>
       <c r="B8" s="5">
         <f>'[1]@goods_type'!$B9</f>
@@ -1884,7 +1782,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f>'[1]@goods_type'!$C9</f>
-        <v>5 플레이어 경험치</v>
+        <v>5 스킬 경험치 아이템</v>
       </c>
       <c r="E8" s="12" t="str">
         <f>'[1]@repeat_type'!A8</f>
@@ -1902,7 +1800,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="str">
         <f>'[1]@goods_type'!$A10</f>
-        <v>EXP_CHARACTER</v>
+        <v>STAGE_SKIP</v>
       </c>
       <c r="B9" s="5">
         <f>'[1]@goods_type'!$B10</f>
@@ -1910,7 +1808,7 @@
       </c>
       <c r="C9" s="5" t="str">
         <f>'[1]@goods_type'!$C10</f>
-        <v>6 캐릭터 경험치</v>
+        <v>6 스테이지 스킵 티켓</v>
       </c>
       <c r="E9" s="12" t="str">
         <f>'[1]@repeat_type'!A9</f>
@@ -1928,7 +1826,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="str">
         <f>'[1]@goods_type'!$A11</f>
-        <v>CHARACTER</v>
+        <v>TICKET_DUNGEON</v>
       </c>
       <c r="B10" s="5">
         <f>'[1]@goods_type'!$B11</f>
@@ -1936,7 +1834,7 @@
       </c>
       <c r="C10" s="5" t="str">
         <f>'[1]@goods_type'!$C11</f>
-        <v>7 캐릭터</v>
+        <v>7 던전 입장 티켓</v>
       </c>
       <c r="E10" s="12">
         <f>'[1]@repeat_type'!A10</f>
@@ -1954,7 +1852,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="str">
         <f>'[1]@goods_type'!$A12</f>
-        <v>EQUIPMENT</v>
+        <v>EQ_GROWUP</v>
       </c>
       <c r="B11" s="5">
         <f>'[1]@goods_type'!$B12</f>
@@ -1962,13 +1860,13 @@
       </c>
       <c r="C11" s="5" t="str">
         <f>'[1]@goods_type'!$C12</f>
-        <v>6 장비</v>
+        <v>8 정련석(장비 성장)</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="str">
         <f>'[1]@goods_type'!$A13</f>
-        <v>SEND_ESSENCE</v>
+        <v>TICKET_REWARD_SELECT</v>
       </c>
       <c r="B12" s="5">
         <f>'[1]@goods_type'!$B13</f>
@@ -1976,13 +1874,13 @@
       </c>
       <c r="C12" s="5" t="str">
         <f>'[1]@goods_type'!$C13</f>
-        <v>근원 전달 횟수(플레이어 보유)</v>
+        <v>9 보상 선택 티켓(1개를 선택 획득)</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="str">
         <f>'[1]@goods_type'!$A14</f>
-        <v>GET_ESSENCE</v>
+        <v>TICKET_REWARD_RANDOM</v>
       </c>
       <c r="B13" s="5">
         <f>'[1]@goods_type'!$B14</f>
@@ -1990,21 +1888,21 @@
       </c>
       <c r="C13" s="5" t="str">
         <f>'[1]@goods_type'!$C14</f>
-        <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+        <v>10 보상 랜덤 티켓(1개를 확률 획득)</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="str">
         <f>'[1]@goods_type'!$A15</f>
-        <v>EXP_POTION</v>
+        <v>TICKET_REWARD_ALL</v>
       </c>
       <c r="B14" s="5">
         <f>'[1]@goods_type'!$B15</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5" t="str">
         <f>'[1]@goods_type'!$C15</f>
-        <v>101 경험치 물약</v>
+        <v>11 보상 패키지 티켓(모든 보상 획득)</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>17</v>
@@ -2013,15 +1911,15 @@
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="str">
         <f>'[1]@goods_type'!$A16</f>
-        <v>STA_POTION</v>
+        <v>EQUIPMENT</v>
       </c>
       <c r="B15" s="5">
         <f>'[1]@goods_type'!$B16</f>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="5" t="str">
         <f>'[1]@goods_type'!$C16</f>
-        <v>102 스테미나 회복 물약</v>
+        <v>100 장비</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>11</v>
@@ -2036,15 +1934,15 @@
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="str">
         <f>'[1]@goods_type'!$A17</f>
-        <v>FAVORITE_ITEM</v>
+        <v>PIECE_EQUIPMENT</v>
       </c>
       <c r="B16" s="5">
         <f>'[1]@goods_type'!$B17</f>
-        <v>103</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="5" t="str">
         <f>'[1]@goods_type'!$C17</f>
-        <v>103 호감도 아이템</v>
+        <v>1000 장비 조각</v>
       </c>
       <c r="E16" s="12" t="str">
         <f>'[1]@charge_type'!A4</f>
@@ -2060,17 +1958,17 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5" t="str">
+      <c r="A17" s="5">
         <f>'[1]@goods_type'!$A18</f>
-        <v>STAGE_SKIP</v>
+        <v>0</v>
       </c>
       <c r="B17" s="5">
         <f>'[1]@goods_type'!$B18</f>
-        <v>104</v>
-      </c>
-      <c r="C17" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
         <f>'[1]@goods_type'!$C18</f>
-        <v>104 스테이지 스킵 티켓</v>
+        <v>0</v>
       </c>
       <c r="E17" s="12" t="str">
         <f>'[1]@charge_type'!A5</f>
@@ -2086,17 +1984,17 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="str">
+      <c r="A18" s="5">
         <f>'[1]@goods_type'!$A19</f>
-        <v>TICKET_DUNGEON</v>
+        <v>0</v>
       </c>
       <c r="B18" s="5">
         <f>'[1]@goods_type'!$B19</f>
-        <v>105</v>
-      </c>
-      <c r="C18" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
         <f>'[1]@goods_type'!$C19</f>
-        <v>105 던전 입장 티켓</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12" t="str">
         <f>'[1]@charge_type'!A6</f>
@@ -2112,17 +2010,17 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="str">
+      <c r="A19" s="5">
         <f>'[1]@goods_type'!$A20</f>
-        <v>EQ_GROWUP</v>
+        <v>0</v>
       </c>
       <c r="B19" s="5">
         <f>'[1]@goods_type'!$B20</f>
-        <v>106</v>
-      </c>
-      <c r="C19" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
         <f>'[1]@goods_type'!$C20</f>
-        <v>106 정련석(장비 성장)</v>
+        <v>0</v>
       </c>
       <c r="E19" s="12" t="str">
         <f>'[1]@charge_type'!A7</f>
@@ -2138,17 +2036,17 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="str">
+      <c r="A20" s="5">
         <f>'[1]@goods_type'!$A21</f>
-        <v>TICKET_REWARD_SELECT</v>
+        <v>0</v>
       </c>
       <c r="B20" s="5">
         <f>'[1]@goods_type'!$B21</f>
-        <v>107</v>
-      </c>
-      <c r="C20" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
         <f>'[1]@goods_type'!$C21</f>
-        <v>107 보상 선택 티켓(1개를 선택 획득)</v>
+        <v>0</v>
       </c>
       <c r="E20" s="12" t="str">
         <f>'[1]@charge_type'!A8</f>
@@ -2164,17 +2062,17 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="str">
+      <c r="A21" s="5">
         <f>'[1]@goods_type'!$A22</f>
-        <v>TICKET_REWARD_RANDOM</v>
+        <v>0</v>
       </c>
       <c r="B21" s="5">
         <f>'[1]@goods_type'!$B22</f>
-        <v>108</v>
-      </c>
-      <c r="C21" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
         <f>'[1]@goods_type'!$C22</f>
-        <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
+        <v>0</v>
       </c>
       <c r="E21" s="12" t="str">
         <f>'[1]@charge_type'!A9</f>
@@ -2190,17 +2088,17 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5" t="str">
+      <c r="A22" s="5">
         <f>'[1]@goods_type'!$A23</f>
-        <v>TICKET_REWARD_ALL</v>
+        <v>0</v>
       </c>
       <c r="B22" s="5">
         <f>'[1]@goods_type'!$B23</f>
-        <v>109</v>
-      </c>
-      <c r="C22" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
         <f>'[1]@goods_type'!$C23</f>
-        <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+        <v>0</v>
       </c>
       <c r="E22" s="12" t="str">
         <f>'[1]@charge_type'!A10</f>
@@ -2216,17 +2114,17 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5" t="str">
+      <c r="A23" s="5">
         <f>'[1]@goods_type'!$A24</f>
-        <v>PIECE_EQUIPMENT</v>
+        <v>0</v>
       </c>
       <c r="B23" s="5">
         <f>'[1]@goods_type'!$B24</f>
-        <v>110</v>
-      </c>
-      <c r="C23" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
         <f>'[1]@goods_type'!$C24</f>
-        <v>110 장비 조각</v>
+        <v>0</v>
       </c>
       <c r="E23" s="12">
         <f>'[1]@charge_type'!A11</f>
@@ -2242,17 +2140,17 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5" t="str">
+      <c r="A24" s="5">
         <f>'[1]@goods_type'!$A25</f>
-        <v>PIECE_CHARACTER</v>
+        <v>0</v>
       </c>
       <c r="B24" s="5">
         <f>'[1]@goods_type'!$B25</f>
-        <v>111</v>
-      </c>
-      <c r="C24" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
         <f>'[1]@goods_type'!$C25</f>
-        <v>111 캐릭터 조각</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2266,13 +2164,13 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.75" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
@@ -2283,7 +2181,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2365,9 +2263,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5" s="5" t="e">
         <f>INDEX('!참조_ENUM'!$B$3:$B$24,MATCH(B5,'!참조_ENUM'!$C$3:$C$24,0))</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
@@ -2394,19 +2292,19 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5">
+      <c r="A6" s="5" t="e">
         <f>INDEX('!참조_ENUM'!$B$3:$B$24,MATCH(B6,'!참조_ENUM'!$C$3:$C$24,0))</f>
-        <v>9</v>
+        <v>#N/A</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5">
         <f>INDEX('!참조_ENUM'!$F$16:$F$25,MATCH(D6,'!참조_ENUM'!$G$16:$G$25,0))</f>
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -2416,26 +2314,26 @@
         <v>2</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="5" t="e">
         <f>INDEX('!참조_ENUM'!$B$3:$B$24,MATCH(B7,'!참조_ENUM'!$C$3:$C$24,0))</f>
-        <v>10</v>
+        <v>#N/A</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5">
         <f>INDEX('!참조_ENUM'!$F$16:$F$25,MATCH(D7,'!참조_ENUM'!$G$16:$G$25,0))</f>
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
@@ -2445,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="13">
         <v>0</v>

--- a/Android/ExcelData/ChargeValueTable.xlsx
+++ b/Android/ExcelData/ChargeValueTable.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CAF663-7826-477F-9806-0DFC79648A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1305D09-B324-479F-8248-F2AE54AF3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
-    <sheet name="!chargeValue" sheetId="1" r:id="rId2"/>
+    <sheet name="charge_item" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -596,7 +596,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>보상 타입</t>
   </si>
@@ -687,10 +687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>charge_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>충전 수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,12 +694,6 @@
     <t>지정 수치만큼 차징, Final max값 이상은 차징되지 않음</t>
   </si>
   <si>
-    <t>근원 전달 횟수(플레이어 보유)</t>
-  </si>
-  <si>
-    <t>근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
-  </si>
-  <si>
     <t>Final max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
   </si>
   <si>
@@ -712,6 +702,28 @@
   <si>
     <t>Charge_Value_Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 근원 전달 횟수(플레이어 보유)</t>
+  </si>
+  <si>
+    <t>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
+  </si>
+  <si>
+    <t>charge_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 사용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use_Charge_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -973,6 +985,7 @@
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
+      <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
       <sheetName val="@piece_type"/>
       <sheetName val="@eqipment_type"/>
@@ -981,6 +994,7 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@love_level_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1005,12 +1019,8 @@
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
-      <sheetData sheetId="22">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GOODS_TYPE</v>
-          </cell>
-        </row>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23">
         <row r="3">
           <cell r="A3" t="str">
             <v>type</v>
@@ -1022,232 +1032,10 @@
             <v>comment</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>EXP_POTION_P</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 플레이어 경험치 물약</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>EXP_POTION_C</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 캐릭터 경험치 물약</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>STA_POTION</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3 스테미나 회복 물약</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>FAVORITE_ITEM</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>4 호감도 아이템</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>EXP_SKILL</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>5 스킬 경험치 아이템</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>STAGE_SKIP</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>6 스테이지 스킵 티켓</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>TICKET_DUNGEON</v>
-          </cell>
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>7 던전 입장 티켓</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>EQ_GROWUP</v>
-          </cell>
-          <cell r="B12">
-            <v>8</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>8 정련석(장비 성장)</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>TICKET_REWARD_SELECT</v>
-          </cell>
-          <cell r="B13">
-            <v>9</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>9 보상 선택 티켓(1개를 선택 획득)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>TICKET_REWARD_RANDOM</v>
-          </cell>
-          <cell r="B14">
-            <v>10</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>10 보상 랜덤 티켓(1개를 확률 획득)</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>TICKET_REWARD_ALL</v>
-          </cell>
-          <cell r="B15">
-            <v>11</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>11 보상 패키지 티켓(모든 보상 획득)</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>EQUIPMENT</v>
-          </cell>
-          <cell r="B16">
-            <v>100</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>100 장비</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>PIECE_EQUIPMENT</v>
-          </cell>
-          <cell r="B17">
-            <v>1000</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>1000 장비 조각</v>
-          </cell>
-        </row>
       </sheetData>
-      <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="26">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>REPEAT_MIN</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 지정된 분마다</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>REPEAT_DAY</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>REPEAT_WEEK</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>REPEAT_MONTH</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>REPEAT_YEAR</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27">
         <row r="4">
           <cell r="A4" t="str">
@@ -1262,6 +1050,74 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
+            <v>REPEAT_MIN</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 지정된 분마다</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>REPEAT_DAY</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>REPEAT_WEEK</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>REPEAT_MONTH</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>REPEAT_YEAR</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
             <v>FINALMAX</v>
           </cell>
           <cell r="B5">
@@ -1327,8 +1183,290 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>GOLD</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 금화(게임내 사용되는 재화)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DIA</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 보석(게임내 사용되는 유료 재화)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>STAMINA</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 스태미나</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>FAVORITE</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 호감도</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>EXP_PLAYER</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 플레이어 경험치</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>EXP_CHARACTER</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>6 캐릭터 경험치</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>CHARACTER</v>
+          </cell>
+          <cell r="B11">
+            <v>7</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>7 캐릭터</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>EQUIPMENT</v>
+          </cell>
+          <cell r="B12">
+            <v>8</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>8 장비</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>SEND_ESSENCE</v>
+          </cell>
+          <cell r="B13">
+            <v>9</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>9 근원 전달 횟수(플레이어 보유)</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>GET_ESSENCE</v>
+          </cell>
+          <cell r="B14">
+            <v>10</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>EXP_POTION_P</v>
+          </cell>
+          <cell r="B15">
+            <v>101</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>101 플레이어 경험치 물약</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>EXP_POTION_C</v>
+          </cell>
+          <cell r="B16">
+            <v>102</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>102 캐릭터 경험치 물약</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>STA_POTION</v>
+          </cell>
+          <cell r="B17">
+            <v>103</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>103 스테미나 회복 물약</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>FAVORITE_ITEM</v>
+          </cell>
+          <cell r="B18">
+            <v>104</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>104 호감도 아이템</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>STAGE_SKIP</v>
+          </cell>
+          <cell r="B19">
+            <v>105</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>105 스테이지 스킵 티켓</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>TICKET_DUNGEON</v>
+          </cell>
+          <cell r="B20">
+            <v>106</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>106 던전 입장 티켓</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>EQ_GROWUP</v>
+          </cell>
+          <cell r="B21">
+            <v>107</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>107 정련석(장비 성장)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>TICKET_REWARD_SELECT</v>
+          </cell>
+          <cell r="B22">
+            <v>108</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>109 보상 선택 티켓(1개를 선택 획득)</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>TICKET_REWARD_RANDOM</v>
+          </cell>
+          <cell r="B23">
+            <v>109</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>TICKET_REWARD_ALL</v>
+          </cell>
+          <cell r="B24">
+            <v>110</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>110 보상 패키지 티켓(모든 보상 획득)</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>PIECE_EQUIPMENT</v>
+          </cell>
+          <cell r="B25">
+            <v>111</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>111 장비 조각</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>PIECE_CHARACTER</v>
+          </cell>
+          <cell r="B26">
+            <v>112</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>112 캐릭터 조각</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>PIECE_ITEM</v>
+          </cell>
+          <cell r="B27">
+            <v>113</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>113 아이템 조각</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>EXP_SKILL</v>
+          </cell>
+          <cell r="B28">
+            <v>114</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>113 스킬 경험치 아이템</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1597,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BF11E6-A5C6-49BF-8E12-BDA3BA90979F}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A27" sqref="A27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1614,8 +1752,8 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="str">
-        <f>'[1]@goods_type'!$A$1</f>
-        <v>GOODS_TYPE</v>
+        <f>'[1]@reward_type'!$A$1</f>
+        <v>REWARD_TYPE</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1646,15 +1784,15 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="str">
-        <f>'[1]@goods_type'!$A4</f>
+        <f>'[1]@reward_type'!$A4</f>
         <v>NONE</v>
       </c>
       <c r="B3" s="5">
-        <f>'[1]@goods_type'!$B4</f>
+        <f>'[1]@reward_type'!$B4</f>
         <v>0</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f>'[1]@goods_type'!$C4</f>
+        <f>'[1]@reward_type'!$C4</f>
         <v>NONE</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1669,16 +1807,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="str">
-        <f>'[1]@goods_type'!$A5</f>
-        <v>EXP_POTION_P</v>
+        <f>'[1]@reward_type'!$A5</f>
+        <v>GOLD</v>
       </c>
       <c r="B4" s="5">
-        <f>'[1]@goods_type'!$B5</f>
+        <f>'[1]@reward_type'!$B5</f>
         <v>1</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f>'[1]@goods_type'!$C5</f>
-        <v>1 플레이어 경험치 물약</v>
+        <f>'[1]@reward_type'!$C5</f>
+        <v>1 금화(게임내 사용되는 재화)</v>
       </c>
       <c r="E4" s="12" t="str">
         <f>'[1]@repeat_type'!A4</f>
@@ -1695,16 +1833,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="str">
-        <f>'[1]@goods_type'!$A6</f>
-        <v>EXP_POTION_C</v>
+        <f>'[1]@reward_type'!$A6</f>
+        <v>DIA</v>
       </c>
       <c r="B5" s="5">
-        <f>'[1]@goods_type'!$B6</f>
+        <f>'[1]@reward_type'!$B6</f>
         <v>2</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f>'[1]@goods_type'!$C6</f>
-        <v>2 캐릭터 경험치 물약</v>
+        <f>'[1]@reward_type'!$C6</f>
+        <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>'[1]@repeat_type'!A5</f>
@@ -1721,16 +1859,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="str">
-        <f>'[1]@goods_type'!$A7</f>
-        <v>STA_POTION</v>
+        <f>'[1]@reward_type'!$A7</f>
+        <v>STAMINA</v>
       </c>
       <c r="B6" s="5">
-        <f>'[1]@goods_type'!$B7</f>
+        <f>'[1]@reward_type'!$B7</f>
         <v>3</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f>'[1]@goods_type'!$C7</f>
-        <v>3 스테미나 회복 물약</v>
+        <f>'[1]@reward_type'!$C7</f>
+        <v>3 스태미나</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>'[1]@repeat_type'!A6</f>
@@ -1747,16 +1885,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="str">
-        <f>'[1]@goods_type'!$A8</f>
-        <v>FAVORITE_ITEM</v>
+        <f>'[1]@reward_type'!$A8</f>
+        <v>FAVORITE</v>
       </c>
       <c r="B7" s="5">
-        <f>'[1]@goods_type'!$B8</f>
+        <f>'[1]@reward_type'!$B8</f>
         <v>4</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f>'[1]@goods_type'!$C8</f>
-        <v>4 호감도 아이템</v>
+        <f>'[1]@reward_type'!$C8</f>
+        <v>4 호감도</v>
       </c>
       <c r="E7" s="12" t="str">
         <f>'[1]@repeat_type'!A7</f>
@@ -1773,16 +1911,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="str">
-        <f>'[1]@goods_type'!$A9</f>
-        <v>EXP_SKILL</v>
+        <f>'[1]@reward_type'!$A9</f>
+        <v>EXP_PLAYER</v>
       </c>
       <c r="B8" s="5">
-        <f>'[1]@goods_type'!$B9</f>
+        <f>'[1]@reward_type'!$B9</f>
         <v>5</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f>'[1]@goods_type'!$C9</f>
-        <v>5 스킬 경험치 아이템</v>
+        <f>'[1]@reward_type'!$C9</f>
+        <v>5 플레이어 경험치</v>
       </c>
       <c r="E8" s="12" t="str">
         <f>'[1]@repeat_type'!A8</f>
@@ -1799,16 +1937,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="str">
-        <f>'[1]@goods_type'!$A10</f>
-        <v>STAGE_SKIP</v>
+        <f>'[1]@reward_type'!$A10</f>
+        <v>EXP_CHARACTER</v>
       </c>
       <c r="B9" s="5">
-        <f>'[1]@goods_type'!$B10</f>
+        <f>'[1]@reward_type'!$B10</f>
         <v>6</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f>'[1]@goods_type'!$C10</f>
-        <v>6 스테이지 스킵 티켓</v>
+        <f>'[1]@reward_type'!$C10</f>
+        <v>6 캐릭터 경험치</v>
       </c>
       <c r="E9" s="12" t="str">
         <f>'[1]@repeat_type'!A9</f>
@@ -1825,16 +1963,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="str">
-        <f>'[1]@goods_type'!$A11</f>
-        <v>TICKET_DUNGEON</v>
+        <f>'[1]@reward_type'!$A11</f>
+        <v>CHARACTER</v>
       </c>
       <c r="B10" s="5">
-        <f>'[1]@goods_type'!$B11</f>
+        <f>'[1]@reward_type'!$B11</f>
         <v>7</v>
       </c>
       <c r="C10" s="5" t="str">
-        <f>'[1]@goods_type'!$C11</f>
-        <v>7 던전 입장 티켓</v>
+        <f>'[1]@reward_type'!$C11</f>
+        <v>7 캐릭터</v>
       </c>
       <c r="E10" s="12">
         <f>'[1]@repeat_type'!A10</f>
@@ -1851,58 +1989,58 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="str">
-        <f>'[1]@goods_type'!$A12</f>
-        <v>EQ_GROWUP</v>
+        <f>'[1]@reward_type'!$A12</f>
+        <v>EQUIPMENT</v>
       </c>
       <c r="B11" s="5">
-        <f>'[1]@goods_type'!$B12</f>
+        <f>'[1]@reward_type'!$B12</f>
         <v>8</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f>'[1]@goods_type'!$C12</f>
-        <v>8 정련석(장비 성장)</v>
+        <f>'[1]@reward_type'!$C12</f>
+        <v>8 장비</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="str">
-        <f>'[1]@goods_type'!$A13</f>
-        <v>TICKET_REWARD_SELECT</v>
+        <f>'[1]@reward_type'!$A13</f>
+        <v>SEND_ESSENCE</v>
       </c>
       <c r="B12" s="5">
-        <f>'[1]@goods_type'!$B13</f>
+        <f>'[1]@reward_type'!$B13</f>
         <v>9</v>
       </c>
       <c r="C12" s="5" t="str">
-        <f>'[1]@goods_type'!$C13</f>
-        <v>9 보상 선택 티켓(1개를 선택 획득)</v>
+        <f>'[1]@reward_type'!$C13</f>
+        <v>9 근원 전달 횟수(플레이어 보유)</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="str">
-        <f>'[1]@goods_type'!$A14</f>
-        <v>TICKET_REWARD_RANDOM</v>
+        <f>'[1]@reward_type'!$A14</f>
+        <v>GET_ESSENCE</v>
       </c>
       <c r="B13" s="5">
-        <f>'[1]@goods_type'!$B14</f>
+        <f>'[1]@reward_type'!$B14</f>
         <v>10</v>
       </c>
       <c r="C13" s="5" t="str">
-        <f>'[1]@goods_type'!$C14</f>
-        <v>10 보상 랜덤 티켓(1개를 확률 획득)</v>
+        <f>'[1]@reward_type'!$C14</f>
+        <v>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="str">
-        <f>'[1]@goods_type'!$A15</f>
-        <v>TICKET_REWARD_ALL</v>
+        <f>'[1]@reward_type'!$A15</f>
+        <v>EXP_POTION_P</v>
       </c>
       <c r="B14" s="5">
-        <f>'[1]@goods_type'!$B15</f>
-        <v>11</v>
+        <f>'[1]@reward_type'!$B15</f>
+        <v>101</v>
       </c>
       <c r="C14" s="5" t="str">
-        <f>'[1]@goods_type'!$C15</f>
-        <v>11 보상 패키지 티켓(모든 보상 획득)</v>
+        <f>'[1]@reward_type'!$C15</f>
+        <v>101 플레이어 경험치 물약</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>17</v>
@@ -1910,16 +2048,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="str">
-        <f>'[1]@goods_type'!$A16</f>
-        <v>EQUIPMENT</v>
+        <f>'[1]@reward_type'!$A16</f>
+        <v>EXP_POTION_C</v>
       </c>
       <c r="B15" s="5">
-        <f>'[1]@goods_type'!$B16</f>
-        <v>100</v>
+        <f>'[1]@reward_type'!$B16</f>
+        <v>102</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f>'[1]@goods_type'!$C16</f>
-        <v>100 장비</v>
+        <f>'[1]@reward_type'!$C16</f>
+        <v>102 캐릭터 경험치 물약</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>11</v>
@@ -1933,16 +2071,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="str">
-        <f>'[1]@goods_type'!$A17</f>
-        <v>PIECE_EQUIPMENT</v>
+        <f>'[1]@reward_type'!$A17</f>
+        <v>STA_POTION</v>
       </c>
       <c r="B16" s="5">
-        <f>'[1]@goods_type'!$B17</f>
-        <v>1000</v>
+        <f>'[1]@reward_type'!$B17</f>
+        <v>103</v>
       </c>
       <c r="C16" s="5" t="str">
-        <f>'[1]@goods_type'!$C17</f>
-        <v>1000 장비 조각</v>
+        <f>'[1]@reward_type'!$C17</f>
+        <v>103 스테미나 회복 물약</v>
       </c>
       <c r="E16" s="12" t="str">
         <f>'[1]@charge_type'!A4</f>
@@ -1958,17 +2096,17 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5">
-        <f>'[1]@goods_type'!$A18</f>
-        <v>0</v>
+      <c r="A17" s="5" t="str">
+        <f>'[1]@reward_type'!$A18</f>
+        <v>FAVORITE_ITEM</v>
       </c>
       <c r="B17" s="5">
-        <f>'[1]@goods_type'!$B18</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <f>'[1]@goods_type'!$C18</f>
-        <v>0</v>
+        <f>'[1]@reward_type'!$B18</f>
+        <v>104</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f>'[1]@reward_type'!$C18</f>
+        <v>104 호감도 아이템</v>
       </c>
       <c r="E17" s="12" t="str">
         <f>'[1]@charge_type'!A5</f>
@@ -1984,17 +2122,17 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5">
-        <f>'[1]@goods_type'!$A19</f>
-        <v>0</v>
+      <c r="A18" s="5" t="str">
+        <f>'[1]@reward_type'!$A19</f>
+        <v>STAGE_SKIP</v>
       </c>
       <c r="B18" s="5">
-        <f>'[1]@goods_type'!$B19</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <f>'[1]@goods_type'!$C19</f>
-        <v>0</v>
+        <f>'[1]@reward_type'!$B19</f>
+        <v>105</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f>'[1]@reward_type'!$C19</f>
+        <v>105 스테이지 스킵 티켓</v>
       </c>
       <c r="E18" s="12" t="str">
         <f>'[1]@charge_type'!A6</f>
@@ -2010,17 +2148,17 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5">
-        <f>'[1]@goods_type'!$A20</f>
-        <v>0</v>
+      <c r="A19" s="5" t="str">
+        <f>'[1]@reward_type'!$A20</f>
+        <v>TICKET_DUNGEON</v>
       </c>
       <c r="B19" s="5">
-        <f>'[1]@goods_type'!$B20</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <f>'[1]@goods_type'!$C20</f>
-        <v>0</v>
+        <f>'[1]@reward_type'!$B20</f>
+        <v>106</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f>'[1]@reward_type'!$C20</f>
+        <v>106 던전 입장 티켓</v>
       </c>
       <c r="E19" s="12" t="str">
         <f>'[1]@charge_type'!A7</f>
@@ -2036,17 +2174,17 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5">
-        <f>'[1]@goods_type'!$A21</f>
-        <v>0</v>
+      <c r="A20" s="5" t="str">
+        <f>'[1]@reward_type'!$A21</f>
+        <v>EQ_GROWUP</v>
       </c>
       <c r="B20" s="5">
-        <f>'[1]@goods_type'!$B21</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <f>'[1]@goods_type'!$C21</f>
-        <v>0</v>
+        <f>'[1]@reward_type'!$B21</f>
+        <v>107</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f>'[1]@reward_type'!$C21</f>
+        <v>107 정련석(장비 성장)</v>
       </c>
       <c r="E20" s="12" t="str">
         <f>'[1]@charge_type'!A8</f>
@@ -2062,17 +2200,17 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5">
-        <f>'[1]@goods_type'!$A22</f>
-        <v>0</v>
+      <c r="A21" s="5" t="str">
+        <f>'[1]@reward_type'!$A22</f>
+        <v>TICKET_REWARD_SELECT</v>
       </c>
       <c r="B21" s="5">
-        <f>'[1]@goods_type'!$B22</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <f>'[1]@goods_type'!$C22</f>
-        <v>0</v>
+        <f>'[1]@reward_type'!$B22</f>
+        <v>108</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f>'[1]@reward_type'!$C22</f>
+        <v>109 보상 선택 티켓(1개를 선택 획득)</v>
       </c>
       <c r="E21" s="12" t="str">
         <f>'[1]@charge_type'!A9</f>
@@ -2088,17 +2226,17 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5">
-        <f>'[1]@goods_type'!$A23</f>
-        <v>0</v>
+      <c r="A22" s="5" t="str">
+        <f>'[1]@reward_type'!$A23</f>
+        <v>TICKET_REWARD_RANDOM</v>
       </c>
       <c r="B22" s="5">
-        <f>'[1]@goods_type'!$B23</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <f>'[1]@goods_type'!$C23</f>
-        <v>0</v>
+        <f>'[1]@reward_type'!$B23</f>
+        <v>109</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f>'[1]@reward_type'!$C23</f>
+        <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
       </c>
       <c r="E22" s="12" t="str">
         <f>'[1]@charge_type'!A10</f>
@@ -2114,17 +2252,17 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5">
-        <f>'[1]@goods_type'!$A24</f>
-        <v>0</v>
+      <c r="A23" s="5" t="str">
+        <f>'[1]@reward_type'!$A24</f>
+        <v>TICKET_REWARD_ALL</v>
       </c>
       <c r="B23" s="5">
-        <f>'[1]@goods_type'!$B24</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <f>'[1]@goods_type'!$C24</f>
-        <v>0</v>
+        <f>'[1]@reward_type'!$B24</f>
+        <v>110</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f>'[1]@reward_type'!$C24</f>
+        <v>110 보상 패키지 티켓(모든 보상 획득)</v>
       </c>
       <c r="E23" s="12">
         <f>'[1]@charge_type'!A11</f>
@@ -2140,17 +2278,59 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5">
-        <f>'[1]@goods_type'!$A25</f>
-        <v>0</v>
+      <c r="A24" s="5" t="str">
+        <f>'[1]@reward_type'!$A25</f>
+        <v>PIECE_EQUIPMENT</v>
       </c>
       <c r="B24" s="5">
-        <f>'[1]@goods_type'!$B25</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="5">
-        <f>'[1]@goods_type'!$C25</f>
-        <v>0</v>
+        <f>'[1]@reward_type'!$B25</f>
+        <v>111</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f>'[1]@reward_type'!$C25</f>
+        <v>111 장비 조각</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="str">
+        <f>'[1]@reward_type'!$A26</f>
+        <v>PIECE_CHARACTER</v>
+      </c>
+      <c r="B25" s="5">
+        <f>'[1]@reward_type'!$B26</f>
+        <v>112</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f>'[1]@reward_type'!$C26</f>
+        <v>112 캐릭터 조각</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="str">
+        <f>'[1]@reward_type'!$A27</f>
+        <v>PIECE_ITEM</v>
+      </c>
+      <c r="B26" s="5">
+        <f>'[1]@reward_type'!$B27</f>
+        <v>113</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f>'[1]@reward_type'!$C27</f>
+        <v>113 아이템 조각</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="str">
+        <f>'[1]@reward_type'!$A28</f>
+        <v>EXP_SKILL</v>
+      </c>
+      <c r="B27" s="5">
+        <f>'[1]@reward_type'!$B28</f>
+        <v>114</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <f>'[1]@reward_type'!$C28</f>
+        <v>113 스킬 경험치 아이템</v>
       </c>
     </row>
   </sheetData>
@@ -2161,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2177,14 +2357,15 @@
     <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2379,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -2209,8 +2390,11 @@
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2235,8 +2419,11 @@
       <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2250,7 +2437,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -2261,11 +2448,14 @@
       <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="e">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$24,MATCH(B5,'!참조_ENUM'!$C$3:$C$24,0))</f>
-        <v>#N/A</v>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$27,MATCH(B5,'!참조_ENUM'!$C$3:$C$27,0))</f>
+        <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
@@ -2275,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
@@ -2290,21 +2480,24 @@
       <c r="H5" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="e">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$24,MATCH(B6,'!참조_ENUM'!$C$3:$C$24,0))</f>
-        <v>#N/A</v>
+      <c r="I5" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$27,MATCH(B6,'!참조_ENUM'!$C$3:$C$27,0))</f>
+        <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5">
         <f>INDEX('!참조_ENUM'!$F$16:$F$25,MATCH(D6,'!참조_ENUM'!$G$16:$G$25,0))</f>
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -2314,26 +2507,29 @@
         <v>2</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5" t="e">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$24,MATCH(B7,'!참조_ENUM'!$C$3:$C$24,0))</f>
-        <v>#N/A</v>
+      <c r="I6" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$27,MATCH(B7,'!참조_ENUM'!$C$3:$C$27,0))</f>
+        <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
         <f>INDEX('!참조_ENUM'!$F$16:$F$25,MATCH(D7,'!참조_ENUM'!$G$16:$G$25,0))</f>
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
@@ -2343,53 +2539,56 @@
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8"/>
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="B9"/>
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="B10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="B11"/>
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="B12"/>
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="B13"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="B14"/>
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="B15"/>
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="B16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -2401,6 +2600,11 @@
     <row r="21" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I7" xr:uid="{F78CCA4C-AD36-409C-82A9-25C47410A945}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2421,7 +2625,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8F7879E-4B0F-4AEE-A725-EF1084E393D2}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$C$3:$C$24</xm:f>
+            <xm:f>'!참조_ENUM'!$C$3:$C$27</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B7</xm:sqref>
         </x14:dataValidation>

--- a/Android/ExcelData/ChargeValueTable.xlsx
+++ b/Android/ExcelData/ChargeValueTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1305D09-B324-479F-8248-F2AE54AF3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09887AE5-F11D-401B-96A4-E49EA1FB95C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="2175" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -601,16 +601,7 @@
     <t>보상 타입</t>
   </si>
   <si>
-    <t>ENUM:GOODS_TYPE:NONE</t>
-  </si>
-  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>goods_type</t>
-  </si>
-  <si>
-    <t>#goods_type</t>
   </si>
   <si>
     <t>3 스태미나</t>
@@ -723,6 +714,18 @@
   </si>
   <si>
     <t>Use_Charge_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:REWARD_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#reward_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1461,7 +1464,7 @@
             <v>114</v>
           </cell>
           <cell r="C28" t="str">
-            <v>113 스킬 경험치 아이템</v>
+            <v>114 스킬 경험치 아이템</v>
           </cell>
         </row>
       </sheetData>
@@ -1738,7 +1741,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1758,7 +1761,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -1777,7 +1780,7 @@
         <v>comment</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -1796,13 +1799,13 @@
         <v>NONE</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2043,7 +2046,7 @@
         <v>101 플레이어 경험치 물약</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2060,13 +2063,13 @@
         <v>102 캐릭터 경험치 물약</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2330,7 +2333,7 @@
       </c>
       <c r="C27" s="5" t="str">
         <f>'[1]@reward_type'!$C28</f>
-        <v>113 스킬 경험치 아이템</v>
+        <v>114 스킬 경험치 아이템</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2347,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2362,7 +2365,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2370,86 +2373,86 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2458,14 +2461,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
         <f>INDEX('!참조_ENUM'!$F$16:$F$25,MATCH(D5,'!참조_ENUM'!$G$16:$G$25,0))</f>
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
@@ -2475,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" s="13">
         <v>6</v>
@@ -2490,14 +2493,14 @@
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5">
         <f>INDEX('!참조_ENUM'!$F$16:$F$25,MATCH(D6,'!참조_ENUM'!$G$16:$G$25,0))</f>
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -2507,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" s="13">
         <v>0</v>
@@ -2522,14 +2525,14 @@
         <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5">
         <f>INDEX('!참조_ENUM'!$F$16:$F$25,MATCH(D7,'!참조_ENUM'!$G$16:$G$25,0))</f>
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
@@ -2539,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="13">
         <v>0</v>

--- a/Android/ExcelData/ChargeValueTable.xlsx
+++ b/Android/ExcelData/ChargeValueTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09887AE5-F11D-401B-96A4-E49EA1FB95C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0EA4F2-3D03-4926-B40A-68B0C46DBD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="2175" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="885" windowWidth="27975" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -717,15 +717,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ENUM:REWARD_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reward_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#reward_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:ENUM:REWARD_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2347,7 +2347,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>

--- a/Android/ExcelData/ChargeValueTable.xlsx
+++ b/Android/ExcelData/ChargeValueTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0EA4F2-3D03-4926-B40A-68B0C46DBD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6435A2F4-105C-4808-98B7-40D15D27CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="885" windowWidth="27975" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1050" windowWidth="37215" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -591,12 +591,195 @@
         </r>
       </text>
     </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{1B6AEE1D-26FA-4BF8-8A3F-F103176DBDD9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>패스권</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>통해서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보스</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입장</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>횟수가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>늘어날</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소지가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있음</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>보상 타입</t>
   </si>
@@ -698,17 +881,10 @@
     <t>9 근원 전달 횟수(플레이어 보유)</t>
   </si>
   <si>
-    <t>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
-  </si>
-  <si>
     <t>charge_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 사용 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,6 +903,16 @@
   <si>
     <t>key_1:ENUM:REWARD_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Max(Base max + add max)값까지 차징</t>
+  </si>
+  <si>
+    <t>충전 주기 데이터 사용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106 보스전 입장 횟수</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1172,6 @@
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
-      <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
@@ -998,32 +1183,32 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@attribute_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22">
         <row r="3">
           <cell r="A3" t="str">
             <v>type</v>
@@ -1036,9 +1221,77 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>REPEAT_MIN</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 지정된 분마다</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>REPEAT_DAY</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>REPEAT_WEEK</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>REPEAT_MONTH</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>REPEAT_YEAR</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="27">
         <row r="4">
           <cell r="A4" t="str">
@@ -1053,61 +1306,77 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>REPEAT_MIN</v>
+            <v>FINALMAX</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 지정된 분마다</v>
+            <v>Final Max(Base max + add max)값까지 차징</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>REPEAT_DAY</v>
+            <v>BASEMAX_CUT</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+            <v>Base max값만큼만 차징, Final Max 값을 넘지 못함</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>REPEAT_WEEK</v>
+            <v>BASEMAX_OVER</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+            <v>Base max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>REPEAT_MONTH</v>
+            <v>FINALMAX_OVER</v>
           </cell>
           <cell r="B8">
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+            <v>Final max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>REPEAT_YEAR</v>
+            <v>VALUE_CUT</v>
           </cell>
           <cell r="B9">
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+            <v>지정 수치만큼 차징, Final max값 이상은 차징되지 않음</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>VALUE_OVER</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>지정 수치만큼 차징, Final max값 이상 차징 가능</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="28">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -1121,90 +1390,6 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>FINALMAX</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Final Max(Base max + add max)값까지 차징</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BASEMAX_CUT</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Base max값만큼만 차징, Final Max 값을 넘지 못함</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>BASEMAX_OVER</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Base max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>FINALMAX_OVER</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Final max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>VALUE_CUT</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>지정 수치만큼 차징, Final max값 이상은 차징되지 않음</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>VALUE_OVER</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>지정 수치만큼 차징, Final max값 이상 차징 가능</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
             <v>GOLD</v>
           </cell>
           <cell r="B5">
@@ -1376,7 +1561,7 @@
             <v>106</v>
           </cell>
           <cell r="C20" t="str">
-            <v>106 던전 입장 티켓</v>
+            <v>106 보스전 입장 횟수</v>
           </cell>
         </row>
         <row r="21">
@@ -1468,8 +1653,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1741,7 +1927,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2161,7 +2347,7 @@
       </c>
       <c r="C19" s="5" t="str">
         <f>'[1]@reward_type'!$C20</f>
-        <v>106 던전 입장 티켓</v>
+        <v>106 보스전 입장 횟수</v>
       </c>
       <c r="E19" s="12" t="str">
         <f>'[1]@charge_type'!A7</f>
@@ -2347,7 +2533,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2360,7 +2546,7 @@
     <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2394,12 +2580,12 @@
         <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -2423,15 +2609,15 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -2440,7 +2626,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>4</v>
@@ -2452,7 +2638,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2522,20 +2708,20 @@
     <row r="7" spans="1:9">
       <c r="A7" s="5">
         <f>INDEX('!참조_ENUM'!$B$3:$B$27,MATCH(B7,'!참조_ENUM'!$C$3:$C$27,0))</f>
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5">
         <f>INDEX('!참조_ENUM'!$F$16:$F$25,MATCH(D7,'!참조_ENUM'!$G$16:$G$25,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E7" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5">
         <f>INDEX('!참조_ENUM'!$F$3:$F$12,MATCH(G7,'!참조_ENUM'!$G$3:$G$12,0))</f>

--- a/Android/ExcelData/ChargeValueTable.xlsx
+++ b/Android/ExcelData/ChargeValueTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6435A2F4-105C-4808-98B7-40D15D27CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD05C900-273C-4D04-8830-954DD9433352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1050" windowWidth="37215" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2295" yWindow="1710" windowWidth="41205" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -591,6 +591,168 @@
         </r>
       </text>
     </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{D2BD9DEE-5DB3-4193-93FD-CA52F1A2E986}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, repeat_time</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용해서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주기마다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회복</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D7" authorId="0" shapeId="0" xr:uid="{1B6AEE1D-26FA-4BF8-8A3F-F103176DBDD9}">
       <text>
         <r>
@@ -885,14 +1047,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use_Charge_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reward_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -908,11 +1062,19 @@
     <t>Final Max(Base max + add max)값까지 차징</t>
   </si>
   <si>
-    <t>충전 주기 데이터 사용 여부</t>
+    <t>106 보스전 입장 횟수</t>
+  </si>
+  <si>
+    <t>스케쥴 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>106 보스전 입장 횟수</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1207,8 +1369,19 @@
       <sheetData sheetId="18" refreshError="1"/>
       <sheetData sheetId="19" refreshError="1"/>
       <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE_V2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GOODS_TYPE</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="A3" t="str">
             <v>type</v>
@@ -1221,8 +1394,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="23">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="25" refreshError="1"/>
       <sheetData sheetId="26">
         <row r="4">
@@ -1555,7 +1740,7 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>TICKET_DUNGEON</v>
+            <v>BOSS_DUNGEON_TICKET</v>
           </cell>
           <cell r="B20">
             <v>106</v>
@@ -2339,7 +2524,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="str">
         <f>'[1]@reward_type'!$A20</f>
-        <v>TICKET_DUNGEON</v>
+        <v>BOSS_DUNGEON_TICKET</v>
       </c>
       <c r="B19" s="5">
         <f>'[1]@reward_type'!$B20</f>
@@ -2533,7 +2718,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2546,7 +2731,7 @@
     <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2580,12 +2765,12 @@
         <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -2609,15 +2794,15 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -2638,7 +2823,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2669,8 +2854,8 @@
       <c r="H5" s="13">
         <v>6</v>
       </c>
-      <c r="I5" s="13" t="b">
-        <v>1</v>
+      <c r="I5" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2701,7 +2886,7 @@
       <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="I6" s="13" t="b">
+      <c r="I6" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2711,17 +2896,17 @@
         <v>106</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5">
         <f>INDEX('!참조_ENUM'!$F$16:$F$25,MATCH(D7,'!참조_ENUM'!$G$16:$G$25,0))</f>
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
         <f>INDEX('!참조_ENUM'!$F$3:$F$12,MATCH(G7,'!참조_ENUM'!$G$3:$G$12,0))</f>
@@ -2733,8 +2918,8 @@
       <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="I7" s="13" t="b">
-        <v>0</v>
+      <c r="I7" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2789,11 +2974,6 @@
     <row r="21" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I7" xr:uid="{F78CCA4C-AD36-409C-82A9-25C47410A945}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Android/ExcelData/ChargeValueTable.xlsx
+++ b/Android/ExcelData/ChargeValueTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD05C900-273C-4D04-8830-954DD9433352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39600331-6B7B-4975-A1F8-9374FC96ED1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2295" yWindow="1710" windowWidth="41205" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -1330,6 +1330,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -1364,24 +1365,20 @@
       <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14" refreshError="1"/>
       <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GAME_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17" refreshError="1"/>
       <sheetData sheetId="18" refreshError="1"/>
       <sheetData sheetId="19" refreshError="1"/>
       <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE_V2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GOODS_TYPE</v>
-          </cell>
-        </row>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23">
         <row r="3">
           <cell r="A3" t="str">
             <v>type</v>
@@ -1394,89 +1391,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="24" refreshError="1"/>
       <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>REPEAT_MIN</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 지정된 분마다</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>REPEAT_DAY</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>REPEAT_WEEK</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>REPEAT_MONTH</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>REPEAT_YEAR</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="26" refreshError="1"/>
       <sheetData sheetId="27">
         <row r="4">
           <cell r="A4" t="str">
@@ -1491,6 +1408,74 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
+            <v>REPEAT_MIN</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 지정된 분마다</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>REPEAT_DAY</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>REPEAT_WEEK</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>REPEAT_MONTH</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>REPEAT_YEAR</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
             <v>FINALMAX</v>
           </cell>
           <cell r="B5">
@@ -1556,7 +1541,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="28">
+      <sheetData sheetId="29">
         <row r="1">
           <cell r="A1" t="str">
             <v>REWARD_TYPE</v>
@@ -1838,9 +1823,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="29" refreshError="1"/>
       <sheetData sheetId="30" refreshError="1"/>
       <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2718,7 +2703,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2979,7 +2964,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4AFF3C5A-AC65-41EA-81C2-855E0ADE7651}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$16:$G$22</xm:f>

--- a/Android/ExcelData/ChargeValueTable.xlsx
+++ b/Android/ExcelData/ChargeValueTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39600331-6B7B-4975-A1F8-9374FC96ED1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B0F97B-06C9-45A0-B6C9-FB7841549A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -1349,35 +1349,29 @@
       <sheetName val="@attribute_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GAME_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
       <sheetData sheetId="23">
         <row r="3">
           <cell r="A3" t="str">
@@ -1391,9 +1385,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27">
         <row r="4">
           <cell r="A4" t="str">
@@ -1670,162 +1664,63 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>EXP_POTION_P</v>
+            <v>BOSS_DUNGEON_TICKET</v>
           </cell>
           <cell r="B15">
-            <v>101</v>
+            <v>106</v>
           </cell>
           <cell r="C15" t="str">
-            <v>101 플레이어 경험치 물약</v>
+            <v>106 보스전 입장 횟수</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>EXP_POTION_C</v>
+            <v>PIECE_EQUIPMENT</v>
           </cell>
           <cell r="B16">
-            <v>102</v>
+            <v>111</v>
           </cell>
           <cell r="C16" t="str">
-            <v>102 캐릭터 경험치 물약</v>
+            <v>111 장비 조각</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>STA_POTION</v>
+            <v>PIECE_CHARACTER</v>
           </cell>
           <cell r="B17">
-            <v>103</v>
+            <v>112</v>
           </cell>
           <cell r="C17" t="str">
-            <v>103 스테미나 회복 물약</v>
+            <v>112 캐릭터 조각</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>FAVORITE_ITEM</v>
+            <v>PIECE_ITEM</v>
           </cell>
           <cell r="B18">
-            <v>104</v>
+            <v>113</v>
           </cell>
           <cell r="C18" t="str">
-            <v>104 호감도 아이템</v>
+            <v>113 아이템 조각</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>STAGE_SKIP</v>
+            <v>ITEM</v>
           </cell>
           <cell r="B19">
-            <v>105</v>
+            <v>1000</v>
           </cell>
           <cell r="C19" t="str">
-            <v>105 스테이지 스킵 티켓</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>BOSS_DUNGEON_TICKET</v>
-          </cell>
-          <cell r="B20">
-            <v>106</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>106 보스전 입장 횟수</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>EQ_GROWUP</v>
-          </cell>
-          <cell r="B21">
-            <v>107</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>107 정련석(장비 성장)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>TICKET_REWARD_SELECT</v>
-          </cell>
-          <cell r="B22">
-            <v>108</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>109 보상 선택 티켓(1개를 선택 획득)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>TICKET_REWARD_RANDOM</v>
-          </cell>
-          <cell r="B23">
-            <v>109</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>TICKET_REWARD_ALL</v>
-          </cell>
-          <cell r="B24">
-            <v>110</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>110 보상 패키지 티켓(모든 보상 획득)</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>PIECE_EQUIPMENT</v>
-          </cell>
-          <cell r="B25">
-            <v>111</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>111 장비 조각</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>PIECE_CHARACTER</v>
-          </cell>
-          <cell r="B26">
-            <v>112</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>112 캐릭터 조각</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>PIECE_ITEM</v>
-          </cell>
-          <cell r="B27">
-            <v>113</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>113 아이템 조각</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>EXP_SKILL</v>
-          </cell>
-          <cell r="B28">
-            <v>114</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>114 스킬 경험치 아이템</v>
+            <v>1000 아이템</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2094,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BF11E6-A5C6-49BF-8E12-BDA3BA90979F}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A19" sqref="A19:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2391,15 +2286,15 @@
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="str">
         <f>'[1]@reward_type'!$A15</f>
-        <v>EXP_POTION_P</v>
+        <v>BOSS_DUNGEON_TICKET</v>
       </c>
       <c r="B14" s="5">
         <f>'[1]@reward_type'!$B15</f>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C14" s="5" t="str">
         <f>'[1]@reward_type'!$C15</f>
-        <v>101 플레이어 경험치 물약</v>
+        <v>106 보스전 입장 횟수</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>14</v>
@@ -2408,15 +2303,15 @@
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="str">
         <f>'[1]@reward_type'!$A16</f>
-        <v>EXP_POTION_C</v>
+        <v>PIECE_EQUIPMENT</v>
       </c>
       <c r="B15" s="5">
         <f>'[1]@reward_type'!$B16</f>
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="str">
         <f>'[1]@reward_type'!$C16</f>
-        <v>102 캐릭터 경험치 물약</v>
+        <v>111 장비 조각</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>8</v>
@@ -2431,15 +2326,15 @@
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="str">
         <f>'[1]@reward_type'!$A17</f>
-        <v>STA_POTION</v>
+        <v>PIECE_CHARACTER</v>
       </c>
       <c r="B16" s="5">
         <f>'[1]@reward_type'!$B17</f>
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5" t="str">
         <f>'[1]@reward_type'!$C17</f>
-        <v>103 스테미나 회복 물약</v>
+        <v>112 캐릭터 조각</v>
       </c>
       <c r="E16" s="12" t="str">
         <f>'[1]@charge_type'!A4</f>
@@ -2457,15 +2352,15 @@
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="str">
         <f>'[1]@reward_type'!$A18</f>
-        <v>FAVORITE_ITEM</v>
+        <v>PIECE_ITEM</v>
       </c>
       <c r="B17" s="5">
         <f>'[1]@reward_type'!$B18</f>
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5" t="str">
         <f>'[1]@reward_type'!$C18</f>
-        <v>104 호감도 아이템</v>
+        <v>113 아이템 조각</v>
       </c>
       <c r="E17" s="12" t="str">
         <f>'[1]@charge_type'!A5</f>
@@ -2483,15 +2378,15 @@
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="str">
         <f>'[1]@reward_type'!$A19</f>
-        <v>STAGE_SKIP</v>
+        <v>ITEM</v>
       </c>
       <c r="B18" s="5">
         <f>'[1]@reward_type'!$B19</f>
-        <v>105</v>
+        <v>1000</v>
       </c>
       <c r="C18" s="5" t="str">
         <f>'[1]@reward_type'!$C19</f>
-        <v>105 스테이지 스킵 티켓</v>
+        <v>1000 아이템</v>
       </c>
       <c r="E18" s="12" t="str">
         <f>'[1]@charge_type'!A6</f>
@@ -2507,18 +2402,6 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="str">
-        <f>'[1]@reward_type'!$A20</f>
-        <v>BOSS_DUNGEON_TICKET</v>
-      </c>
-      <c r="B19" s="5">
-        <f>'[1]@reward_type'!$B20</f>
-        <v>106</v>
-      </c>
-      <c r="C19" s="5" t="str">
-        <f>'[1]@reward_type'!$C20</f>
-        <v>106 보스전 입장 횟수</v>
-      </c>
       <c r="E19" s="12" t="str">
         <f>'[1]@charge_type'!A7</f>
         <v>BASEMAX_OVER</v>
@@ -2533,18 +2416,6 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="str">
-        <f>'[1]@reward_type'!$A21</f>
-        <v>EQ_GROWUP</v>
-      </c>
-      <c r="B20" s="5">
-        <f>'[1]@reward_type'!$B21</f>
-        <v>107</v>
-      </c>
-      <c r="C20" s="5" t="str">
-        <f>'[1]@reward_type'!$C21</f>
-        <v>107 정련석(장비 성장)</v>
-      </c>
       <c r="E20" s="12" t="str">
         <f>'[1]@charge_type'!A8</f>
         <v>FINALMAX_OVER</v>
@@ -2559,18 +2430,6 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="str">
-        <f>'[1]@reward_type'!$A22</f>
-        <v>TICKET_REWARD_SELECT</v>
-      </c>
-      <c r="B21" s="5">
-        <f>'[1]@reward_type'!$B22</f>
-        <v>108</v>
-      </c>
-      <c r="C21" s="5" t="str">
-        <f>'[1]@reward_type'!$C22</f>
-        <v>109 보상 선택 티켓(1개를 선택 획득)</v>
-      </c>
       <c r="E21" s="12" t="str">
         <f>'[1]@charge_type'!A9</f>
         <v>VALUE_CUT</v>
@@ -2585,18 +2444,6 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5" t="str">
-        <f>'[1]@reward_type'!$A23</f>
-        <v>TICKET_REWARD_RANDOM</v>
-      </c>
-      <c r="B22" s="5">
-        <f>'[1]@reward_type'!$B23</f>
-        <v>109</v>
-      </c>
-      <c r="C22" s="5" t="str">
-        <f>'[1]@reward_type'!$C23</f>
-        <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
-      </c>
       <c r="E22" s="12" t="str">
         <f>'[1]@charge_type'!A10</f>
         <v>VALUE_OVER</v>
@@ -2611,18 +2458,6 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5" t="str">
-        <f>'[1]@reward_type'!$A24</f>
-        <v>TICKET_REWARD_ALL</v>
-      </c>
-      <c r="B23" s="5">
-        <f>'[1]@reward_type'!$B24</f>
-        <v>110</v>
-      </c>
-      <c r="C23" s="5" t="str">
-        <f>'[1]@reward_type'!$C24</f>
-        <v>110 보상 패키지 티켓(모든 보상 획득)</v>
-      </c>
       <c r="E23" s="12">
         <f>'[1]@charge_type'!A11</f>
         <v>0</v>
@@ -2634,62 +2469,6 @@
       <c r="G23" s="12">
         <f>'[1]@charge_type'!C11</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="5" t="str">
-        <f>'[1]@reward_type'!$A25</f>
-        <v>PIECE_EQUIPMENT</v>
-      </c>
-      <c r="B24" s="5">
-        <f>'[1]@reward_type'!$B25</f>
-        <v>111</v>
-      </c>
-      <c r="C24" s="5" t="str">
-        <f>'[1]@reward_type'!$C25</f>
-        <v>111 장비 조각</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="5" t="str">
-        <f>'[1]@reward_type'!$A26</f>
-        <v>PIECE_CHARACTER</v>
-      </c>
-      <c r="B25" s="5">
-        <f>'[1]@reward_type'!$B26</f>
-        <v>112</v>
-      </c>
-      <c r="C25" s="5" t="str">
-        <f>'[1]@reward_type'!$C26</f>
-        <v>112 캐릭터 조각</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="5" t="str">
-        <f>'[1]@reward_type'!$A27</f>
-        <v>PIECE_ITEM</v>
-      </c>
-      <c r="B26" s="5">
-        <f>'[1]@reward_type'!$B27</f>
-        <v>113</v>
-      </c>
-      <c r="C26" s="5" t="str">
-        <f>'[1]@reward_type'!$C27</f>
-        <v>113 아이템 조각</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5" t="str">
-        <f>'[1]@reward_type'!$A28</f>
-        <v>EXP_SKILL</v>
-      </c>
-      <c r="B27" s="5">
-        <f>'[1]@reward_type'!$B28</f>
-        <v>114</v>
-      </c>
-      <c r="C27" s="5" t="str">
-        <f>'[1]@reward_type'!$C28</f>
-        <v>114 스킬 경험치 아이템</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2482,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2813,7 +2592,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$27,MATCH(B5,'!참조_ENUM'!$C$3:$C$27,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$18,MATCH(B5,'!참조_ENUM'!$C$3:$C$18,0))</f>
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2845,7 +2624,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$27,MATCH(B6,'!참조_ENUM'!$C$3:$C$27,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$18,MATCH(B6,'!참조_ENUM'!$C$3:$C$18,0))</f>
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2877,7 +2656,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$27,MATCH(B7,'!참조_ENUM'!$C$3:$C$27,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$18,MATCH(B7,'!참조_ENUM'!$C$3:$C$18,0))</f>
         <v>106</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2964,7 +2743,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4AFF3C5A-AC65-41EA-81C2-855E0ADE7651}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$16:$G$22</xm:f>
@@ -2979,7 +2758,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8F7879E-4B0F-4AEE-A725-EF1084E393D2}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$C$3:$C$27</xm:f>
+            <xm:f>'!참조_ENUM'!$C$3:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B7</xm:sqref>
         </x14:dataValidation>

--- a/Android/ExcelData/ChargeValueTable.xlsx
+++ b/Android/ExcelData/ChargeValueTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B0F97B-06C9-45A0-B6C9-FB7841549A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47260547-843B-4748-B496-7CE6BD2077BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40515" yWindow="1320" windowWidth="34095" windowHeight="18765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -753,195 +753,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{1B6AEE1D-26FA-4BF8-8A3F-F103176DBDD9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>패스권</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등을</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>통해서</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>보스</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>입장</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>횟수가</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>늘어날</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>소지가</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있음</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>보상 타입</t>
   </si>
@@ -1057,12 +874,6 @@
   <si>
     <t>key_1:ENUM:REWARD_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final Max(Base max + add max)값까지 차징</t>
-  </si>
-  <si>
-    <t>106 보스전 입장 횟수</t>
   </si>
   <si>
     <t>스케쥴 ID</t>
@@ -1347,13 +1158,41 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1365,7 +1204,13 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GAME_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
@@ -1720,7 +1565,17 @@
       </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="32">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2479,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2529,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2558,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2587,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2655,36 +2510,9 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$18,MATCH(B7,'!참조_ENUM'!$C$3:$C$18,0))</f>
-        <v>106</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5">
-        <f>INDEX('!참조_ENUM'!$F$16:$F$25,MATCH(D7,'!참조_ENUM'!$G$16:$G$25,0))</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$12,MATCH(G7,'!참조_ENUM'!$G$3:$G$12,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
+      <c r="B7"/>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:9">
       <c r="B8"/>
@@ -2731,11 +2559,26 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
+    <row r="17" spans="2:7">
+      <c r="B17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2748,19 +2591,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$16:$G$22</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D7</xm:sqref>
+          <xm:sqref>D5:D6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{764397A1-2DCA-4BA9-94AD-6598122E842F}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G7</xm:sqref>
+          <xm:sqref>G5:G6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8F7879E-4B0F-4AEE-A725-EF1084E393D2}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B7</xm:sqref>
+          <xm:sqref>B5:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
